--- a/biology/Zoologie/Crossocheilus/Crossocheilus.xlsx
+++ b/biology/Zoologie/Crossocheilus/Crossocheilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crossocheilus est un genre de poissons téléostéens d'eaux douces ou saumâtre de la famille des Cyprinidae (ordre des Cypriniformes). Les espèces de ce genre se rencontrent en Asie[1] dont la Chine, l'Inde, l'Indonésie, la Malaisie et la Thaïlande[2].
-Ces poissons sont présents dans différents types d'habitat mais souvent dans les rivières au débit rapide et au fond rocheux[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crossocheilus est un genre de poissons téléostéens d'eaux douces ou saumâtre de la famille des Cyprinidae (ordre des Cypriniformes). Les espèces de ce genre se rencontrent en Asie dont la Chine, l'Inde, l'Indonésie, la Malaisie et la Thaïlande.
+Ces poissons sont présents dans différents types d'habitat mais souvent dans les rivières au débit rapide et au fond rocheux.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (25 février 2024)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (25 février 2024) :
 Crossocheilus atrilimes Kottelat, 2000
 Crossocheilus burmanicus Hora, 1936
 Crossocheilus caudomaculatus (Battalgil, 1942)
